--- a/sensitivity_analysis.xlsx
+++ b/sensitivity_analysis.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzovillafuerte/Documents/GitHub/Disaster-Modeling-Resilience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0C3F1B-21F0-3547-BF51-B78A25AFA5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4C71A1-BCFD-E444-A020-C2B9BE41EF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{603F73B5-B0BD-F044-9C8C-C4CA35739094}"/>
+    <workbookView xWindow="37300" yWindow="-360" windowWidth="28040" windowHeight="16380" xr2:uid="{603F73B5-B0BD-F044-9C8C-C4CA35739094}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Analysis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Parameter ( α )</t>
   </si>
@@ -51,13 +51,41 @@
   </si>
   <si>
     <t>Total Cost</t>
+  </si>
+  <si>
+    <t>[160001, 160003, 160008, 160019, 160020, 160024, 160025, 160029]</t>
+  </si>
+  <si>
+    <t>[160007, 160017, 160028]</t>
+  </si>
+  <si>
+    <t>[160001, 160003, 160008, 160019, 160024, 160029]</t>
+  </si>
+  <si>
+    <t>[160007, 160028]</t>
+  </si>
+  <si>
+    <t>[160004, 160017, 160028]</t>
+  </si>
+  <si>
+    <t>Opening Cost</t>
+  </si>
+  <si>
+    <t>0.1 - 1.0</t>
+  </si>
+  <si>
+    <t>2.0 - 5.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,6 +99,37 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -80,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -88,24 +147,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,15 +545,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF626FE0-0217-354A-89EF-D59AE3B41B43}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -487,14 +597,22 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>0.1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1333551</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -503,14 +621,20 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>0.3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -519,14 +643,22 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="5" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>0.5</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1333551</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -535,14 +667,20 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>0.7</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="2">
+        <v>8.6999999999999994E-2</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -551,14 +689,20 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="7" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>0.85</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="2">
+        <v>8.4000000000000005E-2</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -567,14 +711,20 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="2">
+        <v>8.5999999999999993E-2</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -583,14 +733,20 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -599,14 +755,22 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="10" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3">
+        <v>950051</v>
+      </c>
+      <c r="E10" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -643,12 +807,22 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+    <row r="13" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -657,12 +831,22 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+    <row r="14" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1333551</v>
+      </c>
+      <c r="E14" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -671,12 +855,22 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+    <row r="15" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="13">
+        <v>950051</v>
+      </c>
+      <c r="E15" s="12">
+        <v>8.3000000000000004E-2</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -687,8 +881,6 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -701,8 +893,6 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -715,8 +905,6 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -729,8 +917,6 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -743,8 +929,6 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -757,8 +941,6 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -771,8 +953,6 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -785,8 +965,6 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -797,6 +975,82 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>160001</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>160003</v>
+      </c>
+      <c r="C28" s="5">
+        <v>205550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>160008</v>
+      </c>
+      <c r="C29" s="6">
+        <v>188500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>160019</v>
+      </c>
+      <c r="C30" s="6">
+        <v>198200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>160024</v>
+      </c>
+      <c r="C31" s="6">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>160029</v>
+      </c>
+      <c r="C32" s="6">
+        <v>178800</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>160007</v>
+      </c>
+      <c r="C33" s="6">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>160028</v>
+      </c>
+      <c r="C34" s="8">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="7">
+        <f>SUM(C27:C34)</f>
+        <v>950051</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
